--- a/biology/Zoologie/Huayangosaurus/Huayangosaurus.xlsx
+++ b/biology/Zoologie/Huayangosaurus/Huayangosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Huayangosaurus taibaii, Huayangosauridae
 Huayangosaurus est un genre fossile de dinosaures herbivores quadrupèdes de petite taille de l'infra-ordre des stégosauriens, qui a vécu en Chine durant le Jurassique moyen, au Bathonien et au Callovien, soit il y a environ 166 Ma (millions d'années).
-Ce genre est monotypique : la seule espèce connue est Huayangosaurus taibaii, décrite par Dong et al. en 1982[1]. Il a donné son nom à la famille des Huayangosauridae.
+Ce genre est monotypique : la seule espèce connue est Huayangosaurus taibaii, décrite par Dong et al. en 1982. Il a donné son nom à la famille des Huayangosauridae.
 L'holotype est composé d'un squelette partiel avec un crâne relativement complet ; sa référence est IVPP V6728.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Huayangosaurus vient du chinois « Huayang » (華陽), un autre nom pour la province du « Sichuan » où les fossiles ont été découverts, et du grec ancien σαῦρος / saûros (« lézard »), le tout signifiant « lézard du Huayang ».
 </t>
@@ -545,10 +559,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été découvert dans la partie inférieure de la formation géologique de Shaximiao près de la ville de  Zigong dans la province du Sichuan en Chine.
-D'autres spécimens ont été découverts que la paléontologue britannique Susannah Maidment a examiné en 2006, sans y trouver de caractères communs avec l'holotype. Elle suggère donc qu'il s'agirait de taxons différents[2].
+D'autres spécimens ont été découverts que la paléontologue britannique Susannah Maidment a examiné en 2006, sans y trouver de caractères communs avec l'holotype. Elle suggère donc qu'il s'agirait de taxons différents.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Huayangosaurus était un stégosaurien de taille modeste, peut-être le plus petit de ce groupe. Sa longueur maximale est estimée à 4,5 mètres, soit bien moins que celle de ses cousins Stegosaurus ou Dacentrurus[3].
-Comme tous les stégosauriens, il possède une petite tête allongée, un long cou et un dos couvert d'une double rangée de plaques osseuses plus ou moins pointues qui s'étendent sur toute la longueur de la colonne vertébrale. Ces plaques et ces pointes ne sont pas reliées à la colonne vertébrale, mais imbriquées dans une peau épaisse. Le bout de sa queue porte un groupe de deux paires de grandes pointes[3], appelé de façon informelle un « thagomizer ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huayangosaurus était un stégosaurien de taille modeste, peut-être le plus petit de ce groupe. Sa longueur maximale est estimée à 4,5 mètres, soit bien moins que celle de ses cousins Stegosaurus ou Dacentrurus.
+Comme tous les stégosauriens, il possède une petite tête allongée, un long cou et un dos couvert d'une double rangée de plaques osseuses plus ou moins pointues qui s'étendent sur toute la longueur de la colonne vertébrale. Ces plaques et ces pointes ne sont pas reliées à la colonne vertébrale, mais imbriquées dans une peau épaisse. Le bout de sa queue porte un groupe de deux paires de grandes pointes, appelé de façon informelle un « thagomizer ».
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Huayangosaurus vivait en même temps que plusieurs autres genres de vertébrés dont plusieurs sauropodes[3] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Huayangosaurus vivait en même temps que plusieurs autres genres de vertébrés dont plusieurs sauropodes : 
 des sauropodes ;
 Shunosaurus,
 Datousaurus,
@@ -620,11 +640,7 @@
 un ornithopode ;
 Xiaosaurus,
 et un théropode (carnivore) ;
-Gasosaurus.
-Cladogramme
-Les analyses cladistiques réalisées en 2009 et 2010, respectivement par O. Mateus et al.[4] et S. Maidment et al.[5] montrent des résultats similaires et aboutissent à un cladogramme simplifié.
-Huayangosaurus est un stégosaurien assez primitif associé en groupe frère avec le genre Chungkingosaurus dans la famille des Huayangosauridae. 
-</t>
+Gasosaurus.</t>
         </is>
       </c>
     </row>
@@ -649,10 +665,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Paléobiologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses cladistiques réalisées en 2009 et 2010, respectivement par O. Mateus et al. et S. Maidment et al. montrent des résultats similaires et aboutissent à un cladogramme simplifié.
+Huayangosaurus est un stégosaurien assez primitif associé en groupe frère avec le genre Chungkingosaurus dans la famille des Huayangosauridae. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Huayangosaurus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Huayangosaurus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Huayangosaurus est présent dans le jeu Jurassic World Evolution (2018).</t>
         </is>
